--- a/data/01_raw/arriendos_puerto_montt.xlsx
+++ b/data/01_raw/arriendos_puerto_montt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D600"/>
+  <dimension ref="A1:D605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15280,6 +15280,130 @@
         </is>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Casa en arriendo</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>$
+1.500.000</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>9 dormitorios
+3 banos
+120 m2 utiles</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Departamento en arriendo</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>$
+500.000</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>3 dormitorios
+2 banos
+56 m2 utiles</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>La Paloma, Puerto Montt</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Departamento en arriendo</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>$
+550.000</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>2 dormitorios
+1 bano
+52 m2 utiles</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>La Paloma, Puerto Montt</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Departamento en arriendo</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>$
+730.000</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>2 dormitorios
+2 banos
+72 m2 utiles</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Local en arriendo</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>$
+400.000</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>1 bano
+30 m2 utiles</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
